--- a/04_dataFrames/colores5.xlsx
+++ b/04_dataFrames/colores5.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="3337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="3336">
   <si>
     <t>artist</t>
-  </si>
-  <si>
-    <t>Turner, Joseph Mallord William</t>
   </si>
   <si>
     <t>Jones, George</t>
@@ -10382,7 +10379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3337"/>
+  <dimension ref="A1:B3336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10398,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>39389</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10406,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1046</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10414,7 +10411,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10422,7 +10419,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>612</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10430,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>578</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10438,7 +10435,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10446,7 +10443,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>385</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10454,7 +10451,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10462,7 +10459,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10470,7 +10467,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10478,7 +10475,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10486,7 +10483,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10494,7 +10491,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10502,7 +10499,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10510,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10518,7 +10515,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10526,7 +10523,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10534,7 +10531,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10542,7 +10539,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10550,7 +10547,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10558,7 +10555,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10566,7 +10563,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10574,7 +10571,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10582,7 +10579,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10598,7 +10595,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10622,7 +10619,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10630,7 +10627,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10638,7 +10635,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10646,7 +10643,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10654,7 +10651,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10662,7 +10659,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10670,7 +10667,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10678,7 +10675,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10686,7 +10683,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10694,7 +10691,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10702,7 +10699,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10710,7 +10707,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10726,7 +10723,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10734,7 +10731,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -10742,7 +10739,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -10750,7 +10747,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10758,7 +10755,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10766,7 +10763,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10782,7 +10779,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -10790,7 +10787,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -10806,7 +10803,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -10814,7 +10811,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10822,7 +10819,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10830,7 +10827,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10846,7 +10843,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -10854,7 +10851,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -10862,7 +10859,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10870,7 +10867,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -10878,7 +10875,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -10886,7 +10883,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10894,7 +10891,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -10926,7 +10923,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -10950,7 +10947,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -10958,7 +10955,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -10966,7 +10963,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -10982,7 +10979,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -11006,7 +11003,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -11014,7 +11011,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -11022,7 +11019,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11046,7 +11043,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -11070,7 +11067,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -11086,7 +11083,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -11134,7 +11131,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -11150,7 +11147,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -11166,7 +11163,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -11190,7 +11187,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -11214,7 +11211,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -11222,7 +11219,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -11230,7 +11227,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -11254,7 +11251,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -11278,7 +11275,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -11294,7 +11291,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -11310,7 +11307,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -11350,7 +11347,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -11374,7 +11371,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -11398,7 +11395,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -11414,7 +11411,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -11454,7 +11451,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -11510,7 +11507,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -11542,7 +11539,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -11582,7 +11579,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -11646,7 +11643,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -11654,7 +11651,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -11686,7 +11683,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -11758,7 +11755,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -11806,7 +11803,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -11830,7 +11827,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -11838,7 +11835,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -11894,7 +11891,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -11966,7 +11963,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -12030,7 +12027,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -12078,7 +12075,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -12134,7 +12131,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -12206,7 +12203,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -12294,7 +12291,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -12334,7 +12331,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -12422,7 +12419,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -12550,7 +12547,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -12702,7 +12699,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -12734,7 +12731,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -12838,7 +12835,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -12990,7 +12987,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -13126,7 +13123,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -13278,7 +13275,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -13454,7 +13451,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -13702,7 +13699,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -13974,7 +13971,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -14230,7 +14227,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -14558,7 +14555,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -14878,7 +14875,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -15150,7 +15147,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -15582,7 +15579,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -16270,7 +16267,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -17054,7 +17051,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -18094,7 +18091,7 @@
         <v>963</v>
       </c>
       <c r="B964">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -19558,7 +19555,7 @@
         <v>1146</v>
       </c>
       <c r="B1147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -21702,7 +21699,7 @@
         <v>1414</v>
       </c>
       <c r="B1415">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -25510,7 +25507,7 @@
         <v>1890</v>
       </c>
       <c r="B1891">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -37070,14 +37067,6 @@
         <v>3335</v>
       </c>
       <c r="B3336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3337" spans="1:2">
-      <c r="A3337" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="B3337">
         <v>1</v>
       </c>
     </row>
@@ -37086,8 +37075,8 @@
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
